--- a/biology/Botanique/Stratégie_mondiale_pour_la_conservation_des_plantes/Stratégie_mondiale_pour_la_conservation_des_plantes.xlsx
+++ b/biology/Botanique/Stratégie_mondiale_pour_la_conservation_des_plantes/Stratégie_mondiale_pour_la_conservation_des_plantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strat%C3%A9gie_mondiale_pour_la_conservation_des_plantes</t>
+          <t>Stratégie_mondiale_pour_la_conservation_des_plantes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Stratégie mondiale pour la conservation des plantes (SMCP) est un programme de la Convention sur la diversité biologique (CDB) des Nations unies. Ce programme visait à ralentir le rythme d'extinction des espèces de plantes dans le monde à partir de 2010. La SMCP a commencé en 1999 par des discussions informelles lors du seizième congrès international de botanique à Saint Louis (Missouri). Un groupe de spécialistes s'est ensuite réuni à la Grande Canarie et a émis la « Déclaration de la Grande Canarie » appelant à une stratégie mondiale de conservation des plantes. Après de longues consultations, la SMCP étoffée a été adoptée par les parties à la Convention sur la diversité biologique en avril 2002. Le cœur du GSPC est constitué par cinq buts principaux, exprimés sous forme d'un total de 16 objectifs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strat%C3%A9gie_mondiale_pour_la_conservation_des_plantes</t>
+          <t>Stratégie_mondiale_pour_la_conservation_des_plantes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cinq buts et leurs seize objectifs pour la période 2011-2020 sont les suivants[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cinq buts et leurs seize objectifs pour la période 2011-2020 sont les suivants :
 But I : La diversité des plantes est bien comprise, documentée et reconnue.
 Objectif 1 : liste en ligne de toutes les espèces de plantes connues.
 Objectif 2 : dans la mesure du possible, évaluation du statut de conservation de toutes les espèces de plantes connues, dans le but de guider les actions de conservation.
